--- a/Designer/NEON SHOTTER2.xlsx
+++ b/Designer/NEON SHOTTER2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\NeonShooter2\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7AD29C51-87CA-432E-BE87-A705B8016039}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F40C2C4D-7891-407D-BEB6-97210BF4BE03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="7905" xr2:uid="{E0709D68-EA2B-41E0-938D-9BA05D64C3B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="7905" activeTab="1" xr2:uid="{E0709D68-EA2B-41E0-938D-9BA05D64C3B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩法" sheetId="1" r:id="rId1"/>
+    <sheet name="帶作項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次反彈獲得傷害增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻擊CD減少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待做系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紙娃娃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店：轉蛋、買幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人攻擊ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>關卡換算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次反彈時增加%傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戰場外框同一代有強化塊，撞到可提升傷害並增加一次彈跳次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反射線：只提示到第一次反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每次撞擊會射出水平方向的小傷害攻擊，會造成能力球消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,11 +172,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改成球的能力可以升級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡時第一次可透過看廣告復活，之後需消耗金幣，消耗數量會逐漸提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊ai(敵人命中機率參數化)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射線：只提示到第一次反射，不顯示風力影響</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡難度提升：敵人數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店&amp;紙娃娃介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新結算介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場上互動道具：金幣ICON、反彈牆、風力顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭X30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身X30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背飾X30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_射出物特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_回血特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_爆炸特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_削減特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_穿透特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_能力護盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球_自身護盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次反彈增加攻擊球傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化塊傷害加成增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力球特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊CD特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,14 +291,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -260,14 +325,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,194 +646,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C6ED7-6DB2-4E6E-929F-6FBA4B2EB5C5}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -781,17 +840,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -799,4 +858,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2636C3-D737-45F3-8CB0-5F4ADAE15297}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Designer/NEON SHOTTER2.xlsx
+++ b/Designer/NEON SHOTTER2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\NeonShooter2\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F40C2C4D-7891-407D-BEB6-97210BF4BE03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F66D43AB-3987-4190-A4FF-E7D7980D5111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="7905" activeTab="1" xr2:uid="{E0709D68-EA2B-41E0-938D-9BA05D64C3B6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新結算介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>場上互動道具：金幣ICON、反彈牆、風力顯示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +269,18 @@
   </si>
   <si>
     <t>攻擊CD特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新結算&amp;新主介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新APP ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇能力球介面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,11 +339,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C6ED7-6DB2-4E6E-929F-6FBA4B2EB5C5}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -749,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +857,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -850,7 +867,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2636C3-D737-45F3-8CB0-5F4ADAE15297}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -921,19 +938,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
+      <c r="A13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,57 +958,67 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/NEON SHOTTER2.xlsx
+++ b/Designer/NEON SHOTTER2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\NeonShooter2\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F66D43AB-3987-4190-A4FF-E7D7980D5111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{761C57B7-6DCC-48F4-9F70-469BD835B608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="7905" activeTab="1" xr2:uid="{E0709D68-EA2B-41E0-938D-9BA05D64C3B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="7905" xr2:uid="{E0709D68-EA2B-41E0-938D-9BA05D64C3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,57 @@
   </si>
   <si>
     <t>選擇能力球介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_icon01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_icon02</t>
+  </si>
+  <si>
+    <t>skill_icon03</t>
+  </si>
+  <si>
+    <t>skill_icon04</t>
+  </si>
+  <si>
+    <t>skill_icon05</t>
+  </si>
+  <si>
+    <t>skill_icon06</t>
+  </si>
+  <si>
+    <t>skill_icon07</t>
+  </si>
+  <si>
+    <t>skill_icon08</t>
+  </si>
+  <si>
+    <t>skill_icon09</t>
+  </si>
+  <si>
+    <t>skill_icon10</t>
+  </si>
+  <si>
+    <t>skill_icon11</t>
+  </si>
+  <si>
+    <t>skill_icon13</t>
+  </si>
+  <si>
+    <t>skill_icon14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_icon15</t>
+  </si>
+  <si>
+    <t>skill_icon16</t>
+  </si>
+  <si>
+    <t>skill_icon12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -339,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +404,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,13 +723,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C6ED7-6DB2-4E6E-929F-6FBA4B2EB5C5}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -751,123 +814,171 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -881,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2636C3-D737-45F3-8CB0-5F4ADAE15297}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -962,7 +1073,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G15" t="s">
